--- a/Zeta-Potential_Plots/20231204_Zeta_DIP_Serum10.xlsx
+++ b/Zeta-Potential_Plots/20231204_Zeta_DIP_Serum10.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta-Potential_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5FFB6-E55D-A242-9737-6B3D427494BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A491ABB-7388-964D-94E4-29937D57EDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1160" windowWidth="25040" windowHeight="14820" xr2:uid="{C074D038-2C8F-A644-B2D0-B419DC410677}"/>
+    <workbookView xWindow="480" yWindow="1160" windowWidth="10000" windowHeight="8100" xr2:uid="{C074D038-2C8F-A644-B2D0-B419DC410677}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
